--- a/scripts/data/space_1_spawn_Table.xlsx
+++ b/scripts/data/space_1_spawn_Table.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine-1.0.0\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{354B1070-8C12-4BB4-902E-3729D4B653D1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6AEE4703-6949-44F7-B0F0-546CC6176C63}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="@场景1实体出生表#space_1_spawn_Table" sheetId="1" r:id="rId1"/>
+    <sheet name="@!场景1实体出生表#space_1_spawn_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -30,14 +30,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>70.0;22.0;60.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>371.0;0.0;235.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id[!][int]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -63,6 +55,14 @@
   </si>
   <si>
     <t>类型id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>366.0;0.0;246.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>373.0;0.0;255.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +404,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -416,13 +416,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -430,13 +430,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -447,13 +447,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>1001</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -461,13 +461,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>1002</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data/space_1_spawn_Table.xlsx
+++ b/scripts/data/space_1_spawn_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine-1.0.0\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6AEE4703-6949-44F7-B0F0-546CC6176C63}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{274BEE86-1E30-48E2-9255-AE1399FF6B68}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,11 +58,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>366.0;0.0;246.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>373.0;0.0;255.0</t>
+    <t>375.0;0.0;280.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>369.0;0.0;266.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +404,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -453,7 +453,7 @@
         <v>1001</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -467,7 +467,7 @@
         <v>1002</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
